--- a/icd_files/30354.xlsx
+++ b/icd_files/30354.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B229EA-10FB-4FB3-A26B-0D395EE6819B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104AB12C-137E-44C0-BC37-C9448E97257E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="747">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1617,6 +1617,9 @@
     <t>05-12</t>
   </si>
   <si>
+    <t>05-13</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -1626,13 +1629,136 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Vancomycin Oral Liquid</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin HCl</t>
+  </si>
+  <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Albuterol MDI</t>
+  </si>
+  <si>
+    <t>Ferrous Sulfate</t>
+  </si>
+  <si>
+    <t>Clopidogrel</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
     <t>Furosemide</t>
   </si>
   <si>
-    <t>NS</t>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Metoclopramide</t>
+  </si>
+  <si>
+    <t>Fentanyl Patch</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Viokase 8</t>
+  </si>
+  <si>
+    <t>Albuterol</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Vecuronium Bromide</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Heparin Flush PICC (100 units/ml)</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Clopidogrel Bisulfate</t>
+  </si>
+  <si>
+    <t>Heparin Flush CVL  (100 units/ml)</t>
+  </si>
+  <si>
+    <t>CeftazIDIME</t>
+  </si>
+  <si>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
   </si>
   <si>
     <t>00:00</t>
@@ -1641,6 +1767,36 @@
     <t>250 ml</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>75 TAB</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
     <t>00:45</t>
   </si>
   <si>
@@ -1668,24 +1824,63 @@
     <t>9</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
     <t>07:00</t>
   </si>
   <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>7 VIAL</t>
   </si>
   <si>
+    <t>750 VIAL</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
     <t>13:00</t>
   </si>
   <si>
+    <t>30 UDCUP</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>0.5-2 TAB</t>
+  </si>
+  <si>
+    <t>25 PTCH</t>
+  </si>
+  <si>
+    <t>1-2 TAB</t>
+  </si>
+  <si>
+    <t>1-2 INH</t>
+  </si>
+  <si>
     <t>500 mL</t>
   </si>
   <si>
@@ -1698,6 +1893,12 @@
     <t>21:00</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
     <t>No Response</t>
   </si>
   <si>
@@ -1710,21 +1911,54 @@
     <t>Flex-withdraws</t>
   </si>
   <si>
-    <t>10 VIAL</t>
-  </si>
-  <si>
     <t>100 VIAL</t>
   </si>
   <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
     <t>Obeys Commands</t>
   </si>
   <si>
+    <t>0.5 mL</t>
+  </si>
+  <si>
+    <t>300 UDCUP</t>
+  </si>
+  <si>
+    <t>0.25 VIAL</t>
+  </si>
+  <si>
+    <t>250 SYR</t>
+  </si>
+  <si>
+    <t>750 TAB</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>325 TAB</t>
+  </si>
+  <si>
     <t>46 VIAL</t>
   </si>
   <si>
-    <t>100 BAG</t>
-  </si>
-  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -1743,10 +1977,19 @@
     <t>14:00</t>
   </si>
   <si>
+    <t>50 mL</t>
+  </si>
+  <si>
     <t>35 VIAL</t>
   </si>
   <si>
+    <t>25 SYR</t>
+  </si>
+  <si>
     <t>15 VIAL</t>
+  </si>
+  <si>
+    <t>500 VIAL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -7019,7 +7262,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000000-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9877,7 +10120,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000001-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12735,7 +12978,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000002-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15737,7 +15980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000003-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18607,7 +18850,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000004-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20526,7 +20769,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000005-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22116,7 +22359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000006-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23706,7 +23949,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000007-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25347,7 +25590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000008-6DE1-458C-8796-F9A56EAF76CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25790,7 +26033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F219309A-E4AE-41BB-9F41-B51BF22C3830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04034A6C-B503-451A-B01E-B1480FCA8385}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -25815,7 +26058,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -25828,7 +26071,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -25841,7 +26084,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -25854,7 +26097,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -25867,27 +26110,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -25915,7 +26158,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -25943,11 +26186,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>585</v>
+        <v>666</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -25970,7 +26213,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26007,7 +26250,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -26030,14 +26273,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -26060,14 +26303,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -26090,14 +26333,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>590</v>
+        <v>671</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -26120,14 +26363,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>590</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -26150,16 +26393,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>592</v>
+        <v>673</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -26182,14 +26425,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -26212,10 +26455,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>595</v>
+        <v>676</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -26223,7 +26466,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -26235,7 +26478,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -26258,7 +26501,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -26274,11 +26517,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>598</v>
+        <v>679</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -26301,7 +26544,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -26319,7 +26562,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -26342,7 +26585,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -26361,7 +26604,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -26384,10 +26627,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -26405,7 +26648,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -26428,52 +26671,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -26496,53 +26739,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -26565,43 +26808,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -26609,7 +26852,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -26632,43 +26875,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -26676,7 +26919,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -26699,43 +26942,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -26743,7 +26986,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -26766,43 +27009,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -26810,7 +27053,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -26833,43 +27076,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -26877,7 +27120,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -26900,43 +27143,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -26944,7 +27187,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -26967,43 +27210,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -27011,7 +27254,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -27034,43 +27277,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -27078,7 +27321,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -27101,43 +27344,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -27145,7 +27388,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -27168,43 +27411,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -27212,7 +27455,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -27235,43 +27478,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -27279,7 +27522,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -27302,7 +27545,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -27315,10 +27558,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -27326,7 +27569,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -27349,14 +27592,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -27371,7 +27614,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -27394,7 +27637,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -27414,7 +27657,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -27437,7 +27680,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -27457,7 +27700,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -27480,7 +27723,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -27498,11 +27741,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -27525,14 +27768,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -27555,14 +27798,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -27585,14 +27828,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -27615,14 +27858,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -27645,14 +27888,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -27675,14 +27918,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -27705,10 +27948,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -27725,7 +27968,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -27748,7 +27991,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -27766,7 +28009,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -27789,7 +28032,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -27807,7 +28050,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -27830,14 +28073,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -27860,14 +28103,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -27890,24 +28133,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -27930,7 +28173,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -27939,7 +28182,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -27962,14 +28205,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -27977,7 +28220,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -28000,7 +28243,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -28009,7 +28252,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -28032,14 +28275,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -28047,7 +28290,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -28070,7 +28313,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -28079,7 +28322,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -28102,24 +28345,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -28142,7 +28385,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -28151,7 +28394,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -28174,22 +28417,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -28197,7 +28440,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -28220,7 +28463,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -28233,7 +28476,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -28256,32 +28499,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -28304,7 +28547,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -28313,7 +28556,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -28336,14 +28579,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -28351,7 +28594,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -28374,14 +28617,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -28404,12 +28647,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -28437,7 +28680,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -28464,13 +28707,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -28498,7 +28741,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -28610,7 +28853,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -28638,7 +28881,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -28666,7 +28909,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -40059,13 +40302,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:EB38"/>
+  <dimension ref="A30:EH79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:138" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -40073,7 +40316,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:138" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>510</v>
       </c>
@@ -40096,7 +40339,7 @@
         <v>510</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>511</v>
@@ -40114,10 +40357,10 @@
         <v>511</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>512</v>
@@ -40132,10 +40375,10 @@
         <v>512</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>513</v>
@@ -40150,10 +40393,10 @@
         <v>513</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>514</v>
@@ -40168,10 +40411,10 @@
         <v>514</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>515</v>
@@ -40186,10 +40429,10 @@
         <v>515</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO31" s="1" t="s">
         <v>516</v>
@@ -40204,10 +40447,10 @@
         <v>516</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AU31" s="1" t="s">
         <v>517</v>
@@ -40222,10 +40465,10 @@
         <v>517</v>
       </c>
       <c r="AY31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BA31" s="1" t="s">
         <v>518</v>
@@ -40240,10 +40483,10 @@
         <v>518</v>
       </c>
       <c r="BE31" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BF31" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BG31" s="1" t="s">
         <v>519</v>
@@ -40258,10 +40501,10 @@
         <v>519</v>
       </c>
       <c r="BK31" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BM31" s="1" t="s">
         <v>520</v>
@@ -40276,10 +40519,10 @@
         <v>520</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BS31" s="1" t="s">
         <v>521</v>
@@ -40294,10 +40537,10 @@
         <v>521</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BY31" s="1" t="s">
         <v>522</v>
@@ -40312,10 +40555,10 @@
         <v>522</v>
       </c>
       <c r="CC31" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="CE31" s="1" t="s">
         <v>523</v>
@@ -40330,10 +40573,10 @@
         <v>523</v>
       </c>
       <c r="CI31" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="CJ31" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="CK31" s="1" t="s">
         <v>524</v>
@@ -40345,10 +40588,10 @@
         <v>524</v>
       </c>
       <c r="CN31" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="CO31" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="CP31" s="1" t="s">
         <v>525</v>
@@ -40369,16 +40612,16 @@
         <v>525</v>
       </c>
       <c r="CV31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CW31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CX31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CY31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CZ31" s="1" t="s">
         <v>526</v>
@@ -40393,16 +40636,16 @@
         <v>526</v>
       </c>
       <c r="DD31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DE31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DF31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DG31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DH31" s="1" t="s">
         <v>527</v>
@@ -40414,19 +40657,19 @@
         <v>527</v>
       </c>
       <c r="DK31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DL31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DM31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DN31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DO31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DP31" s="1" t="s">
         <v>528</v>
@@ -40435,19 +40678,19 @@
         <v>528</v>
       </c>
       <c r="DR31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DS31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DT31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DU31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DV31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DW31" s="1" t="s">
         <v>529</v>
@@ -40456,915 +40699,1510 @@
         <v>529</v>
       </c>
       <c r="DY31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="DZ31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="EA31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="EB31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="ED31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="DZ31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="EA31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="EB31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="32" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="EH31" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:138" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D32" t="s">
+        <v>591</v>
+      </c>
+      <c r="E32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F32" t="s">
+        <v>594</v>
+      </c>
+      <c r="G32" t="s">
+        <v>596</v>
+      </c>
+      <c r="H32" t="s">
+        <v>597</v>
+      </c>
+      <c r="I32" t="s">
+        <v>598</v>
+      </c>
+      <c r="J32" t="s">
+        <v>579</v>
+      </c>
+      <c r="K32" t="s">
+        <v>579</v>
+      </c>
+      <c r="L32" t="s">
+        <v>593</v>
+      </c>
+      <c r="M32" t="s">
+        <v>604</v>
+      </c>
+      <c r="N32" t="s">
+        <v>596</v>
+      </c>
+      <c r="O32" t="s">
+        <v>597</v>
+      </c>
+      <c r="P32" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>579</v>
+      </c>
+      <c r="R32" t="s">
+        <v>593</v>
+      </c>
+      <c r="S32" t="s">
+        <v>594</v>
+      </c>
+      <c r="T32" t="s">
+        <v>596</v>
+      </c>
+      <c r="U32" t="s">
+        <v>597</v>
+      </c>
+      <c r="V32" t="s">
+        <v>598</v>
+      </c>
+      <c r="W32" t="s">
+        <v>579</v>
+      </c>
+      <c r="X32" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>598</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>598</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>620</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>622</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>598</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>593</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>594</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>596</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>597</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>598</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>593</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>594</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>596</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>597</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>598</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>593</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>594</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>596</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>597</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>645</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>604</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>646</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>647</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>620</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>648</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>646</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>650</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>620</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>648</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>646</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>647</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>620</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>648</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>646</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>647</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>620</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>648</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>646</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>647</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>620</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>648</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>645</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>594</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>596</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>647</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>627</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>628</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>628</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>628</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>631</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D35" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" t="s">
+        <v>592</v>
+      </c>
+      <c r="F35" t="s">
+        <v>595</v>
+      </c>
+      <c r="G35" t="s">
+        <v>592</v>
+      </c>
+      <c r="H35" t="s">
+        <v>592</v>
+      </c>
+      <c r="I35" t="s">
+        <v>592</v>
+      </c>
+      <c r="J35" t="s">
+        <v>599</v>
+      </c>
+      <c r="K35" t="s">
+        <v>599</v>
+      </c>
+      <c r="L35" t="s">
+        <v>603</v>
+      </c>
+      <c r="M35" t="s">
+        <v>599</v>
+      </c>
+      <c r="N35" t="s">
+        <v>592</v>
+      </c>
+      <c r="O35" t="s">
+        <v>599</v>
+      </c>
+      <c r="P35" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>592</v>
+      </c>
+      <c r="R35" t="s">
+        <v>603</v>
+      </c>
+      <c r="S35" t="s">
+        <v>592</v>
+      </c>
+      <c r="T35" t="s">
+        <v>603</v>
+      </c>
+      <c r="U35" t="s">
+        <v>599</v>
+      </c>
+      <c r="V35" t="s">
+        <v>599</v>
+      </c>
+      <c r="W35" t="s">
+        <v>599</v>
+      </c>
+      <c r="X35" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>610</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>595</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>599</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>592</v>
+      </c>
+      <c r="CT35" t="s">
+        <v>603</v>
+      </c>
+      <c r="CU35" t="s">
+        <v>603</v>
+      </c>
+      <c r="CV35" t="s">
+        <v>603</v>
+      </c>
+      <c r="CW35" t="s">
+        <v>607</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>607</v>
+      </c>
+      <c r="CY35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DB35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DD35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DF35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DG35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DJ35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DK35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DL35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DM35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DN35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DO35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DQ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DR35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DS35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DT35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DU35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DV35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DX35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DY35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DZ35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EA35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EB35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EC35" t="s">
+        <v>603</v>
+      </c>
+      <c r="ED35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EE35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EF35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EG35" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>615</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>635</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>635</v>
+      </c>
+      <c r="CR37" t="s">
+        <v>635</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C32" t="s">
+      <c r="CP38" t="s">
+        <v>636</v>
+      </c>
+      <c r="CQ38" t="s">
+        <v>636</v>
+      </c>
+      <c r="CR38" t="s">
+        <v>636</v>
+      </c>
+      <c r="CS38" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J39" t="s">
+        <v>600</v>
+      </c>
+      <c r="K39" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>600</v>
+      </c>
+      <c r="CE39" t="s">
+        <v>624</v>
+      </c>
+      <c r="CP39" t="s">
+        <v>600</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>644</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>644</v>
+      </c>
+      <c r="CS39" t="s">
+        <v>600</v>
+      </c>
+      <c r="CZ39" t="s">
+        <v>649</v>
+      </c>
+      <c r="DA39" t="s">
+        <v>649</v>
+      </c>
+      <c r="DH39" t="s">
+        <v>600</v>
+      </c>
+      <c r="DI39" t="s">
+        <v>649</v>
+      </c>
+      <c r="DP39" t="s">
+        <v>652</v>
+      </c>
+      <c r="DW39" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B40" t="s">
+        <v>580</v>
+      </c>
+      <c r="C40" t="s">
+        <v>580</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CP40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CQ40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CR40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CS40" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>637</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>637</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>637</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E32" t="s">
+      <c r="CP42" t="s">
+        <v>638</v>
+      </c>
+      <c r="CQ42" t="s">
+        <v>638</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>638</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>638</v>
+      </c>
+      <c r="DW42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F32" t="s">
+      <c r="CP43" t="s">
+        <v>639</v>
+      </c>
+      <c r="CQ43" t="s">
+        <v>639</v>
+      </c>
+      <c r="CR43" t="s">
+        <v>639</v>
+      </c>
+      <c r="CS43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CP44" t="s">
+        <v>640</v>
+      </c>
+      <c r="CQ44" t="s">
+        <v>640</v>
+      </c>
+      <c r="CR44" t="s">
+        <v>640</v>
+      </c>
+      <c r="CS44" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G32" t="s">
+      <c r="CP45" t="s">
+        <v>641</v>
+      </c>
+      <c r="CQ45" t="s">
+        <v>641</v>
+      </c>
+      <c r="CR45" t="s">
+        <v>641</v>
+      </c>
+      <c r="CS45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H32" t="s">
+      <c r="CP46" t="s">
+        <v>642</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>642</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>642</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I32" t="s">
-        <v>537</v>
-      </c>
-      <c r="J32" t="s">
-        <v>541</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="CP47" t="s">
+        <v>618</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>618</v>
+      </c>
+      <c r="CR47" t="s">
+        <v>618</v>
+      </c>
+      <c r="CS47" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>633</v>
+      </c>
+      <c r="CP48" t="s">
+        <v>643</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>643</v>
+      </c>
+      <c r="CR48" t="s">
+        <v>643</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="CP49" t="s">
+        <v>582</v>
+      </c>
+      <c r="CQ49" t="s">
+        <v>582</v>
+      </c>
+      <c r="CR49" t="s">
+        <v>582</v>
+      </c>
+      <c r="CS49" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="L32" t="s">
-        <v>544</v>
-      </c>
-      <c r="M32" t="s">
-        <v>545</v>
-      </c>
-      <c r="N32" t="s">
-        <v>546</v>
-      </c>
-      <c r="O32" t="s">
-        <v>537</v>
-      </c>
-      <c r="P32" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>542</v>
-      </c>
-      <c r="R32" t="s">
-        <v>544</v>
-      </c>
-      <c r="S32" t="s">
-        <v>545</v>
-      </c>
-      <c r="T32" t="s">
-        <v>546</v>
-      </c>
-      <c r="U32" t="s">
-        <v>537</v>
-      </c>
-      <c r="V32" t="s">
-        <v>541</v>
-      </c>
-      <c r="W32" t="s">
-        <v>542</v>
-      </c>
-      <c r="X32" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="B50" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" t="s">
+        <v>581</v>
+      </c>
+      <c r="W50" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>609</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>581</v>
+      </c>
+      <c r="CZ50" t="s">
+        <v>581</v>
+      </c>
+      <c r="DA50" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>621</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>621</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>629</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>629</v>
+      </c>
+      <c r="CZ51" t="s">
+        <v>629</v>
+      </c>
+      <c r="DA51" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>612</v>
+      </c>
+      <c r="CZ52" t="s">
+        <v>612</v>
+      </c>
+      <c r="DA52" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="AE32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>544</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>544</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>544</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>546</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ32" t="s">
+      <c r="AU54" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="BK32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BP32" t="s">
+      <c r="Q56" t="s">
+        <v>605</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="BQ32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>546</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>544</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>545</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>546</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>541</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>542</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>544</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>545</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>546</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>541</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>542</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>544</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>545</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CP32" t="s">
+      <c r="BA58" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="BS59" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="BY60" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BY61" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CE62" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B64" t="s">
+        <v>581</v>
+      </c>
+      <c r="C64" t="s">
+        <v>581</v>
+      </c>
+      <c r="J64" t="s">
+        <v>581</v>
+      </c>
+      <c r="K64" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B65" t="s">
+        <v>582</v>
+      </c>
+      <c r="C65" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B66" t="s">
+        <v>583</v>
+      </c>
+      <c r="C66" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="67" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B67" t="s">
+        <v>584</v>
+      </c>
+      <c r="C67" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="CQ32" t="s">
-        <v>549</v>
-      </c>
-      <c r="CR32" t="s">
+      <c r="B68" t="s">
+        <v>585</v>
+      </c>
+      <c r="C68" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="CS32" t="s">
+      <c r="B69" t="s">
+        <v>586</v>
+      </c>
+      <c r="C69" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="CT32" t="s">
-        <v>555</v>
-      </c>
-      <c r="CU32" t="s">
+      <c r="B70" t="s">
+        <v>587</v>
+      </c>
+      <c r="C70" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="71" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="CV32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CW32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CX32" t="s">
-        <v>567</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>549</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DA32" t="s">
+      <c r="B71" t="s">
+        <v>588</v>
+      </c>
+      <c r="C71" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B72" t="s">
+        <v>589</v>
+      </c>
+      <c r="C72" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="DB32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DC32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DD32" t="s">
-        <v>537</v>
-      </c>
-      <c r="DE32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DF32" t="s">
-        <v>549</v>
-      </c>
-      <c r="DG32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DH32" t="s">
-        <v>569</v>
-      </c>
-      <c r="DI32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DJ32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DK32" t="s">
-        <v>537</v>
-      </c>
-      <c r="DL32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DM32" t="s">
-        <v>549</v>
-      </c>
-      <c r="DN32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DO32" t="s">
-        <v>569</v>
-      </c>
-      <c r="DP32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DQ32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DR32" t="s">
-        <v>537</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>549</v>
-      </c>
-      <c r="DU32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>569</v>
-      </c>
-      <c r="DW32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DX32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DY32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DZ32" t="s">
-        <v>542</v>
-      </c>
-      <c r="EA32" t="s">
-        <v>544</v>
-      </c>
-      <c r="EB32" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CE33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CF33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CG33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CH33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CJ33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CK33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CL33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CM33" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>560</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>561</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>561</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>561</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CH34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>564</v>
-      </c>
-      <c r="CJ34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CK34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CL34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="35" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C35" t="s">
-        <v>540</v>
-      </c>
-      <c r="D35" t="s">
-        <v>540</v>
-      </c>
-      <c r="E35" t="s">
-        <v>543</v>
-      </c>
-      <c r="F35" t="s">
-        <v>540</v>
-      </c>
-      <c r="G35" t="s">
-        <v>540</v>
-      </c>
-      <c r="H35" t="s">
-        <v>540</v>
-      </c>
-      <c r="I35" t="s">
-        <v>547</v>
-      </c>
-      <c r="J35" t="s">
-        <v>548</v>
-      </c>
-      <c r="K35" t="s">
-        <v>547</v>
-      </c>
-      <c r="L35" t="s">
-        <v>540</v>
-      </c>
-      <c r="M35" t="s">
-        <v>547</v>
-      </c>
-      <c r="N35" t="s">
-        <v>548</v>
-      </c>
-      <c r="O35" t="s">
-        <v>540</v>
-      </c>
-      <c r="P35" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>540</v>
-      </c>
-      <c r="R35" t="s">
-        <v>548</v>
-      </c>
-      <c r="S35" t="s">
-        <v>547</v>
-      </c>
-      <c r="T35" t="s">
-        <v>547</v>
-      </c>
-      <c r="U35" t="s">
-        <v>547</v>
-      </c>
-      <c r="V35" t="s">
-        <v>547</v>
-      </c>
-      <c r="W35" t="s">
-        <v>547</v>
-      </c>
-      <c r="X35" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>548</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>552</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>552</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BS35" t="s">
-        <v>543</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BW35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BX35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BY35" t="s">
-        <v>540</v>
-      </c>
-      <c r="CP35" t="s">
-        <v>548</v>
-      </c>
-      <c r="CQ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="CR35" t="s">
-        <v>548</v>
-      </c>
-      <c r="CS35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CT35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CU35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CX35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CY35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CZ35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DA35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DB35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DC35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DE35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DF35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DG35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DH35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DI35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DJ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DL35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DM35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DN35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DO35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DP35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DQ35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DS35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DT35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DU35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DV35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DW35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DX35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DY35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DZ35" t="s">
-        <v>550</v>
-      </c>
-      <c r="EA35" t="s">
-        <v>550</v>
-      </c>
-      <c r="EB35" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="36" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>551</v>
-      </c>
-      <c r="CC36" t="s">
-        <v>562</v>
-      </c>
-      <c r="CN36" t="s">
-        <v>565</v>
-      </c>
-      <c r="CO36" t="s">
-        <v>565</v>
-      </c>
-      <c r="CV36" t="s">
-        <v>571</v>
-      </c>
-      <c r="CW36" t="s">
-        <v>571</v>
-      </c>
-      <c r="DD36" t="s">
-        <v>571</v>
-      </c>
-      <c r="DK36" t="s">
+      <c r="J73" t="s">
+        <v>601</v>
+      </c>
+      <c r="K73" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>580</v>
+      </c>
+      <c r="DH73" t="s">
+        <v>651</v>
+      </c>
+      <c r="DI73" t="s">
+        <v>651</v>
+      </c>
+      <c r="DP73" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="DR36" t="s">
+      <c r="B74" t="s">
+        <v>585</v>
+      </c>
+      <c r="C74" t="s">
+        <v>590</v>
+      </c>
+      <c r="J74" t="s">
+        <v>590</v>
+      </c>
+      <c r="K74" t="s">
+        <v>590</v>
+      </c>
+      <c r="W74" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="37" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>556</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>556</v>
-      </c>
-      <c r="CC37" t="s">
-        <v>563</v>
-      </c>
-      <c r="CI37" t="s">
-        <v>563</v>
-      </c>
-      <c r="CV37" t="s">
-        <v>563</v>
-      </c>
-      <c r="CW37" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B38" t="s">
-        <v>538</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>554</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>566</v>
-      </c>
-      <c r="CO38" t="s">
-        <v>554</v>
-      </c>
-      <c r="DR38" t="s">
-        <v>566</v>
+      <c r="J75" t="s">
+        <v>602</v>
+      </c>
+      <c r="K75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="W77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="DP78" t="s">
+        <v>653</v>
+      </c>
+      <c r="DW78" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="EH79" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/icd_files/30354.xlsx
+++ b/icd_files/30354.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datiphy\Documents\NEO Excel\icd_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B229EA-10FB-4FB3-A26B-0D395EE6819B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1486A-509B-4D5E-8359-F373B0E07C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADDS Chart" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="747">
   <si>
     <t>CHARTTIME</t>
   </si>
@@ -1617,6 +1617,9 @@
     <t>05-12</t>
   </si>
   <si>
+    <t>05-13</t>
+  </si>
+  <si>
     <t>GCS: Verbal</t>
   </si>
   <si>
@@ -1626,13 +1629,136 @@
     <t>GCS: Total</t>
   </si>
   <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Vancomycin Oral Liquid</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin HCl</t>
+  </si>
+  <si>
     <t>Insulin</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>CefePIME</t>
+  </si>
+  <si>
+    <t>NS (Mini Bag Plus)</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>Metoprolol Tartrate</t>
+  </si>
+  <si>
+    <t>Acetaminophen</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>Albuterol MDI</t>
+  </si>
+  <si>
+    <t>Ferrous Sulfate</t>
+  </si>
+  <si>
+    <t>Clopidogrel</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
     <t>Furosemide</t>
   </si>
   <si>
-    <t>NS</t>
+    <t>Lactulose</t>
+  </si>
+  <si>
+    <t>Bisacodyl</t>
+  </si>
+  <si>
+    <t>Metoclopramide</t>
+  </si>
+  <si>
+    <t>Fentanyl Patch</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Viokase 8</t>
+  </si>
+  <si>
+    <t>Albuterol</t>
+  </si>
+  <si>
+    <t>Sodium Chloride 0.9%  Flush</t>
+  </si>
+  <si>
+    <t>Vecuronium Bromide</t>
+  </si>
+  <si>
+    <t>Fentanyl Citrate</t>
+  </si>
+  <si>
+    <t>Heparin Flush PICC (100 units/ml)</t>
+  </si>
+  <si>
+    <t>Haloperidol</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Clopidogrel Bisulfate</t>
+  </si>
+  <si>
+    <t>Heparin Flush CVL  (100 units/ml)</t>
+  </si>
+  <si>
+    <t>CeftazIDIME</t>
+  </si>
+  <si>
+    <t>Dextrose 5%</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>Atorvastatin</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Influenza Virus Vaccine</t>
+  </si>
+  <si>
+    <t>D5W</t>
+  </si>
+  <si>
+    <t>Iso-Osmotic Dextrose</t>
+  </si>
+  <si>
+    <t>Vial</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Calcium Gluconate</t>
+  </si>
+  <si>
+    <t>Dextrose 50%</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
   </si>
   <si>
     <t>00:00</t>
@@ -1641,6 +1767,36 @@
     <t>250 ml</t>
   </si>
   <si>
+    <t>1000 BAG</t>
+  </si>
+  <si>
+    <t>75 TAB</t>
+  </si>
+  <si>
+    <t>1 SYR</t>
+  </si>
+  <si>
+    <t>1 BAG</t>
+  </si>
+  <si>
+    <t>50 ml</t>
+  </si>
+  <si>
+    <t>100 ml</t>
+  </si>
+  <si>
+    <t>80 TAB</t>
+  </si>
+  <si>
+    <t>1 TAB</t>
+  </si>
+  <si>
+    <t>0.5 SYR</t>
+  </si>
+  <si>
+    <t>200 ml</t>
+  </si>
+  <si>
     <t>00:45</t>
   </si>
   <si>
@@ -1668,24 +1824,63 @@
     <t>9</t>
   </si>
   <si>
+    <t>0 VIAL</t>
+  </si>
+  <si>
+    <t>1000 ml</t>
+  </si>
+  <si>
+    <t>1 VIAL</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
     <t>07:00</t>
   </si>
   <si>
+    <t>20 BAG</t>
+  </si>
+  <si>
+    <t>2 VIAL</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>7 VIAL</t>
   </si>
   <si>
+    <t>750 VIAL</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
     <t>13:00</t>
   </si>
   <si>
+    <t>30 UDCUP</t>
+  </si>
+  <si>
+    <t>10 TAB</t>
+  </si>
+  <si>
+    <t>5 TAB</t>
+  </si>
+  <si>
+    <t>0.5-2 TAB</t>
+  </si>
+  <si>
+    <t>25 PTCH</t>
+  </si>
+  <si>
+    <t>1-2 TAB</t>
+  </si>
+  <si>
+    <t>1-2 INH</t>
+  </si>
+  <si>
     <t>500 mL</t>
   </si>
   <si>
@@ -1698,6 +1893,12 @@
     <t>21:00</t>
   </si>
   <si>
+    <t>3 SYR</t>
+  </si>
+  <si>
+    <t>10 VIAL</t>
+  </si>
+  <si>
     <t>No Response</t>
   </si>
   <si>
@@ -1710,21 +1911,54 @@
     <t>Flex-withdraws</t>
   </si>
   <si>
-    <t>10 VIAL</t>
-  </si>
-  <si>
     <t>100 VIAL</t>
   </si>
   <si>
+    <t>2 SYR</t>
+  </si>
+  <si>
     <t>Obeys Commands</t>
   </si>
   <si>
+    <t>0.5 mL</t>
+  </si>
+  <si>
+    <t>300 UDCUP</t>
+  </si>
+  <si>
+    <t>0.25 VIAL</t>
+  </si>
+  <si>
+    <t>250 SYR</t>
+  </si>
+  <si>
+    <t>750 TAB</t>
+  </si>
+  <si>
+    <t>1 mL</t>
+  </si>
+  <si>
+    <t>100 BAG</t>
+  </si>
+  <si>
+    <t>400 TAB</t>
+  </si>
+  <si>
+    <t>25 TAB</t>
+  </si>
+  <si>
+    <t>325-650 TAB</t>
+  </si>
+  <si>
+    <t>5000 mL</t>
+  </si>
+  <si>
+    <t>325 TAB</t>
+  </si>
+  <si>
     <t>46 VIAL</t>
   </si>
   <si>
-    <t>100 BAG</t>
-  </si>
-  <si>
     <t>03:00</t>
   </si>
   <si>
@@ -1743,10 +1977,19 @@
     <t>14:00</t>
   </si>
   <si>
+    <t>50 mL</t>
+  </si>
+  <si>
     <t>35 VIAL</t>
   </si>
   <si>
+    <t>25 SYR</t>
+  </si>
+  <si>
     <t>15 VIAL</t>
+  </si>
+  <si>
+    <t>500 VIAL</t>
   </si>
   <si>
     <t>Patient Identification Label</t>
@@ -7019,7 +7262,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000000-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9877,7 +10120,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000001-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12735,7 +12978,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000002-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15737,7 +15980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000003-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -18607,7 +18850,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000004-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20164,7 +20407,7 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99.199996948242202</c:v>
+                  <c:v>99.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>98</c:v>
@@ -20176,7 +20419,7 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.699996948242202</c:v>
+                  <c:v>97.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>98.5</c:v>
@@ -20197,7 +20440,7 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>98.59999847412108</c:v>
@@ -20212,7 +20455,7 @@
                   <c:v>98.09999847412108</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>99.900001525878906</c:v>
@@ -20227,13 +20470,13 @@
                   <c:v>97.900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>97.09999847412108</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>97.199996948242202</c:v>
+                  <c:v>97.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>97.800003051757798</c:v>
@@ -20251,10 +20494,10 @@
                   <c:v>98.59999847412108</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>97.199996948242202</c:v>
+                  <c:v>97.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>96.699996948242202</c:v>
+                  <c:v>96.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>97.800003051757798</c:v>
@@ -20284,7 +20527,7 @@
                   <c:v>98.900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>98.699996948242202</c:v>
+                  <c:v>98.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>99</c:v>
@@ -20299,7 +20542,7 @@
                   <c:v>98.09999847412108</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>99.699996948242202</c:v>
+                  <c:v>99.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>99.800003051757798</c:v>
@@ -20308,7 +20551,7 @@
                   <c:v>99.800003051757798</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>98.699996948242202</c:v>
+                  <c:v>98.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>99.400001525878906</c:v>
@@ -20335,7 +20578,7 @@
                   <c:v>99.900001525878906</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>99.699996948242202</c:v>
+                  <c:v>99.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>99</c:v>
@@ -20347,19 +20590,19 @@
                   <c:v>98.59999847412108</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>98.699996948242202</c:v>
+                  <c:v>98.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>98.59999847412108</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>98.300003051757798</c:v>
@@ -20380,7 +20623,7 @@
                   <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="301">
                   <c:v>98</c:v>
@@ -20404,16 +20647,16 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="336">
                   <c:v>98.59999847412108</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>98.699996948242202</c:v>
+                  <c:v>98.699996948242188</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>99.199996948242202</c:v>
+                  <c:v>99.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>98.5</c:v>
@@ -20425,7 +20668,7 @@
                   <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>98.199996948242202</c:v>
+                  <c:v>98.199996948242188</c:v>
                 </c:pt>
                 <c:pt idx="363">
                   <c:v>98.400001525878906</c:v>
@@ -20526,7 +20769,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000005-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -22116,7 +22359,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000006-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23706,7 +23949,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000007-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25347,7 +25590,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-88F9-4039-9831-48FEBB1F1C5F}"/>
+              <c16:uniqueId val="{00000008-27C8-46D6-8F0D-30E4A85E503B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -25790,7 +26033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F219309A-E4AE-41BB-9F41-B51BF22C3830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D1AC7F-B048-40FA-9395-5A6B690F71EC}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AL76"/>
   <sheetViews>
@@ -25815,7 +26058,7 @@
     <row r="1" spans="2:25" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -25828,7 +26071,7 @@
     </row>
     <row r="3" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>576</v>
+        <v>657</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -25841,7 +26084,7 @@
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>577</v>
+        <v>658</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="12"/>
@@ -25854,7 +26097,7 @@
     </row>
     <row r="5" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>578</v>
+        <v>659</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -25867,27 +26110,27 @@
     </row>
     <row r="6" spans="2:25" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="21" t="s">
-        <v>581</v>
+        <v>662</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="22" t="s">
-        <v>582</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
@@ -25915,7 +26158,7 @@
     </row>
     <row r="9" spans="2:25" s="29" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
-        <v>584</v>
+        <v>665</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
@@ -25943,11 +26186,11 @@
     </row>
     <row r="10" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="36" t="s">
-        <v>585</v>
+        <v>666</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="38" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="40"/>
@@ -25970,7 +26213,7 @@
       <c r="W10" s="40"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="41" t="s">
-        <v>586</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26007,7 +26250,7 @@
       <c r="B12" s="42"/>
       <c r="C12" s="43"/>
       <c r="D12" s="48" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
@@ -26030,14 +26273,14 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
       <c r="Y12" s="51" t="s">
-        <v>587</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="54"/>
@@ -26060,14 +26303,14 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="55" t="s">
-        <v>588</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="43"/>
       <c r="D14" s="56" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
       <c r="E14" s="57"/>
       <c r="F14" s="58"/>
@@ -26090,14 +26333,14 @@
       <c r="W14" s="58"/>
       <c r="X14" s="58"/>
       <c r="Y14" s="59" t="s">
-        <v>589</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>590</v>
+        <v>671</v>
       </c>
       <c r="E15" s="45"/>
       <c r="F15" s="46"/>
@@ -26120,14 +26363,14 @@
       <c r="W15" s="46"/>
       <c r="X15" s="46"/>
       <c r="Y15" s="47" t="s">
-        <v>590</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="60"/>
       <c r="C16" s="61"/>
       <c r="D16" s="62" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="64"/>
@@ -26150,16 +26393,16 @@
       <c r="W16" s="64"/>
       <c r="X16" s="64"/>
       <c r="Y16" s="65" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>592</v>
+        <v>673</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="66" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
       <c r="E17" s="67"/>
       <c r="F17" s="68"/>
@@ -26182,14 +26425,14 @@
       <c r="W17" s="68"/>
       <c r="X17" s="68"/>
       <c r="Y17" s="69" t="s">
-        <v>593</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="E18" s="53"/>
       <c r="F18" s="54"/>
@@ -26212,10 +26455,10 @@
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
       <c r="Y18" s="55" t="s">
-        <v>594</v>
+        <v>675</v>
       </c>
       <c r="Z18" s="70" t="s">
-        <v>595</v>
+        <v>676</v>
       </c>
       <c r="AA18" s="71"/>
       <c r="AB18" s="71"/>
@@ -26223,7 +26466,7 @@
       <c r="AD18" s="71"/>
       <c r="AE18" s="72"/>
       <c r="AF18" s="73" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="AG18" s="73"/>
       <c r="AH18" s="73"/>
@@ -26235,7 +26478,7 @@
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="75" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="77"/>
@@ -26258,7 +26501,7 @@
       <c r="W19" s="77"/>
       <c r="X19" s="77"/>
       <c r="Y19" s="78" t="s">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="Z19" s="79"/>
       <c r="AA19" s="80"/>
@@ -26274,11 +26517,11 @@
     </row>
     <row r="20" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="87" t="s">
-        <v>598</v>
+        <v>679</v>
       </c>
       <c r="C20" s="88"/>
       <c r="D20" s="89" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="E20" s="90"/>
       <c r="F20" s="91"/>
@@ -26301,7 +26544,7 @@
       <c r="W20" s="91"/>
       <c r="X20" s="91"/>
       <c r="Y20" s="92" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="Z20" s="79"/>
       <c r="AA20" s="93"/>
@@ -26319,7 +26562,7 @@
       <c r="B21" s="99"/>
       <c r="C21" s="100"/>
       <c r="D21" s="56" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="58"/>
@@ -26342,7 +26585,7 @@
       <c r="W21" s="58"/>
       <c r="X21" s="58"/>
       <c r="Y21" s="59" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="Z21" s="101"/>
       <c r="AA21" s="102"/>
@@ -26361,7 +26604,7 @@
       <c r="B22" s="99"/>
       <c r="C22" s="100"/>
       <c r="D22" s="48" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -26384,10 +26627,10 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
       <c r="Y22" s="51" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="Z22" s="104" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="AA22" s="105"/>
       <c r="AB22" s="105"/>
@@ -26405,7 +26648,7 @@
       <c r="B23" s="107"/>
       <c r="C23" s="108"/>
       <c r="D23" s="109" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
@@ -26428,52 +26671,52 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
       <c r="Y23" s="112" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="Z23" s="113" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="AA23" s="77" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="AB23" s="76" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="AC23" s="77" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="AE23" s="77" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="AF23" s="76" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="AG23" s="77" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="AH23" s="76" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="AI23" s="77" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="AJ23" s="76" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="AK23" s="114" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="87" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="C24" s="88"/>
       <c r="D24" s="115" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="E24" s="116"/>
       <c r="F24" s="117"/>
@@ -26496,53 +26739,53 @@
       <c r="W24" s="117"/>
       <c r="X24" s="117"/>
       <c r="Y24" s="118" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="Z24" s="119" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AA24" s="120" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB24" s="121" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC24" s="122" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD24" s="123" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AF24" s="123" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AG24" s="125" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AH24" s="126" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AI24" s="125" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AJ24" s="126" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AK24" s="125" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AL24" s="127" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="99"/>
       <c r="C25" s="100"/>
       <c r="D25" s="48" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -26565,43 +26808,43 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="51" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AA25" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB25" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC25" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD25" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AE25" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF25" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AG25" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH25" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AI25" s="135" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AJ25" s="134" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AK25" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AL25" s="136"/>
     </row>
@@ -26609,7 +26852,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="100"/>
       <c r="D26" s="48" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -26632,43 +26875,43 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
       <c r="Y26" s="51" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="Z26" s="137" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AA26" s="138" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB26" s="137" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC26" s="138" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD26" s="137" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE26" s="139" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF26" s="140" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AG26" s="141" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH26" s="142" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AI26" s="143" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AJ26" s="144" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AK26" s="143" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AL26" s="136"/>
     </row>
@@ -26676,7 +26919,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="48" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -26699,43 +26942,43 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
       <c r="Y27" s="51" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="Z27" s="145" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AA27" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC27" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD27" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE27" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF27" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AG27" s="150" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH27" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AI27" s="152" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AJ27" s="153" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AK27" s="152" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AL27" s="136"/>
     </row>
@@ -26743,7 +26986,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="100"/>
       <c r="D28" s="154" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="54"/>
@@ -26766,43 +27009,43 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="55" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="Z28" s="155" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AA28" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AB28" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AC28" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD28" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE28" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF28" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG28" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AH28" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AI28" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AJ28" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AK28" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AL28" s="136"/>
     </row>
@@ -26810,7 +27053,7 @@
       <c r="B29" s="99"/>
       <c r="C29" s="100"/>
       <c r="D29" s="156" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="58"/>
@@ -26833,43 +27076,43 @@
       <c r="W29" s="58"/>
       <c r="X29" s="58"/>
       <c r="Y29" s="59" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="Z29" s="157" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AA29" s="158" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AB29" s="159" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC29" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AD29" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE29" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF29" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG29" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH29" s="159" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AI29" s="158" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AJ29" s="162" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AK29" s="163" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AL29" s="136"/>
     </row>
@@ -26877,7 +27120,7 @@
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
       <c r="D30" s="156" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="58"/>
@@ -26900,43 +27143,43 @@
       <c r="W30" s="58"/>
       <c r="X30" s="58"/>
       <c r="Y30" s="59" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="Z30" s="164" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AA30" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AB30" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC30" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD30" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE30" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF30" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG30" s="146" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH30" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI30" s="148" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AJ30" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AK30" s="165" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AL30" s="136"/>
     </row>
@@ -26944,7 +27187,7 @@
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="156" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="58"/>
@@ -26967,43 +27210,43 @@
       <c r="W31" s="58"/>
       <c r="X31" s="58"/>
       <c r="Y31" s="59" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="Z31" s="166" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AA31" s="133" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AB31" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AC31" s="130" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AE31" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG31" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI31" s="129" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ31" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK31" s="167" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AL31" s="136"/>
     </row>
@@ -27011,7 +27254,7 @@
       <c r="B32" s="99"/>
       <c r="C32" s="100"/>
       <c r="D32" s="156" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58"/>
@@ -27034,43 +27277,43 @@
       <c r="W32" s="58"/>
       <c r="X32" s="58"/>
       <c r="Y32" s="59" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="Z32" s="168" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AA32" s="163" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AB32" s="162" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AC32" s="158" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AD32" s="159" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AE32" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AF32" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG32" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH32" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI32" s="160" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ32" s="161" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK32" s="169" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL32" s="136"/>
     </row>
@@ -27078,7 +27321,7 @@
       <c r="B33" s="99"/>
       <c r="C33" s="100"/>
       <c r="D33" s="156" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58"/>
@@ -27101,43 +27344,43 @@
       <c r="W33" s="58"/>
       <c r="X33" s="58"/>
       <c r="Y33" s="59" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="Z33" s="170" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AA33" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AB33" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AC33" s="151" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AD33" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AE33" s="149" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AF33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AG33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AH33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK33" s="147" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL33" s="136"/>
     </row>
@@ -27145,7 +27388,7 @@
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
       <c r="D34" s="154" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="E34" s="53"/>
       <c r="F34" s="54"/>
@@ -27168,43 +27411,43 @@
       <c r="W34" s="54"/>
       <c r="X34" s="54"/>
       <c r="Y34" s="55" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="Z34" s="171" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AA34" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AB34" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AC34" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AD34" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AE34" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AF34" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AG34" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AH34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AI34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AJ34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK34" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL34" s="136"/>
     </row>
@@ -27212,7 +27455,7 @@
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="48" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
@@ -27235,43 +27478,43 @@
       <c r="W35" s="50"/>
       <c r="X35" s="50"/>
       <c r="Y35" s="51" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="Z35" s="171" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AA35" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AB35" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AC35" s="134" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="AD35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AE35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AF35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AG35" s="132" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="AH35" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AI35" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AJ35" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AK35" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL35" s="136"/>
     </row>
@@ -27279,7 +27522,7 @@
       <c r="B36" s="99"/>
       <c r="C36" s="100"/>
       <c r="D36" s="172" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="174"/>
@@ -27302,7 +27545,7 @@
       <c r="W36" s="174"/>
       <c r="X36" s="174"/>
       <c r="Y36" s="175" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="Z36" s="176"/>
       <c r="AA36" s="177"/>
@@ -27315,10 +27558,10 @@
       <c r="AH36" s="177"/>
       <c r="AI36" s="177"/>
       <c r="AJ36" s="131" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="AK36" s="128" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="AL36" s="136"/>
     </row>
@@ -27326,7 +27569,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="100"/>
       <c r="D37" s="178" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="E37" s="179"/>
       <c r="F37" s="180"/>
@@ -27349,14 +27592,14 @@
       <c r="W37" s="180"/>
       <c r="X37" s="180"/>
       <c r="Y37" s="181" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="Z37" s="176"/>
       <c r="AA37" s="177"/>
       <c r="AB37" s="177"/>
       <c r="AC37" s="177"/>
       <c r="AD37" s="182" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="AE37" s="182"/>
       <c r="AF37" s="182"/>
@@ -27371,7 +27614,7 @@
       <c r="B38" s="99"/>
       <c r="C38" s="100"/>
       <c r="D38" s="178" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="E38" s="179"/>
       <c r="F38" s="180"/>
@@ -27394,7 +27637,7 @@
       <c r="W38" s="180"/>
       <c r="X38" s="180"/>
       <c r="Y38" s="181" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="Z38" s="176"/>
       <c r="AA38" s="177"/>
@@ -27414,7 +27657,7 @@
       <c r="B39" s="99"/>
       <c r="C39" s="100"/>
       <c r="D39" s="178" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="E39" s="179"/>
       <c r="F39" s="180"/>
@@ -27437,7 +27680,7 @@
       <c r="W39" s="180"/>
       <c r="X39" s="180"/>
       <c r="Y39" s="181" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="Z39" s="176"/>
       <c r="AA39" s="177"/>
@@ -27457,7 +27700,7 @@
       <c r="B40" s="107"/>
       <c r="C40" s="108"/>
       <c r="D40" s="62" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="E40" s="63"/>
       <c r="F40" s="64"/>
@@ -27480,7 +27723,7 @@
       <c r="W40" s="64"/>
       <c r="X40" s="64"/>
       <c r="Y40" s="65" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="Z40" s="185"/>
       <c r="AA40" s="186"/>
@@ -27498,11 +27741,11 @@
     </row>
     <row r="41" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="87" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40"/>
@@ -27525,14 +27768,14 @@
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
       <c r="Y41" s="41" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="99"/>
       <c r="C42" s="100"/>
       <c r="D42" s="44" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
@@ -27555,14 +27798,14 @@
       <c r="W42" s="46"/>
       <c r="X42" s="46"/>
       <c r="Y42" s="47" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="99"/>
       <c r="C43" s="100"/>
       <c r="D43" s="48" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
@@ -27585,14 +27828,14 @@
       <c r="W43" s="50"/>
       <c r="X43" s="50"/>
       <c r="Y43" s="51" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="48" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
@@ -27615,14 +27858,14 @@
       <c r="W44" s="50"/>
       <c r="X44" s="50"/>
       <c r="Y44" s="51" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="99"/>
       <c r="C45" s="100"/>
       <c r="D45" s="52" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="E45" s="53"/>
       <c r="F45" s="54"/>
@@ -27645,14 +27888,14 @@
       <c r="W45" s="54"/>
       <c r="X45" s="54"/>
       <c r="Y45" s="55" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="99"/>
       <c r="C46" s="100"/>
       <c r="D46" s="56" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="E46" s="57"/>
       <c r="F46" s="58"/>
@@ -27675,14 +27918,14 @@
       <c r="W46" s="58"/>
       <c r="X46" s="58"/>
       <c r="Y46" s="59" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
     </row>
     <row r="47" spans="2:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="99"/>
       <c r="C47" s="100"/>
       <c r="D47" s="56" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="E47" s="57"/>
       <c r="F47" s="58"/>
@@ -27705,10 +27948,10 @@
       <c r="W47" s="58"/>
       <c r="X47" s="58"/>
       <c r="Y47" s="59" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="AA47" s="189" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="AB47" s="190"/>
       <c r="AC47" s="190"/>
@@ -27725,7 +27968,7 @@
       <c r="B48" s="99"/>
       <c r="C48" s="100"/>
       <c r="D48" s="56" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="E48" s="57"/>
       <c r="F48" s="58"/>
@@ -27748,7 +27991,7 @@
       <c r="W48" s="58"/>
       <c r="X48" s="58"/>
       <c r="Y48" s="59" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="AA48" s="190"/>
       <c r="AB48" s="190"/>
@@ -27766,7 +28009,7 @@
       <c r="B49" s="99"/>
       <c r="C49" s="100"/>
       <c r="D49" s="56" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="E49" s="57"/>
       <c r="F49" s="58"/>
@@ -27789,7 +28032,7 @@
       <c r="W49" s="58"/>
       <c r="X49" s="58"/>
       <c r="Y49" s="59" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="AA49" s="190"/>
       <c r="AB49" s="190"/>
@@ -27807,7 +28050,7 @@
       <c r="B50" s="99"/>
       <c r="C50" s="100"/>
       <c r="D50" s="56" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="E50" s="57"/>
       <c r="F50" s="58"/>
@@ -27830,14 +28073,14 @@
       <c r="W50" s="58"/>
       <c r="X50" s="58"/>
       <c r="Y50" s="59" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
     </row>
     <row r="51" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="99"/>
       <c r="C51" s="100"/>
       <c r="D51" s="52" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="E51" s="53"/>
       <c r="F51" s="54"/>
@@ -27860,14 +28103,14 @@
       <c r="W51" s="54"/>
       <c r="X51" s="54"/>
       <c r="Y51" s="55" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
     </row>
     <row r="52" spans="2:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
       <c r="C52" s="108"/>
       <c r="D52" s="62" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="E52" s="63"/>
       <c r="F52" s="64"/>
@@ -27890,24 +28133,24 @@
       <c r="W52" s="64"/>
       <c r="X52" s="64"/>
       <c r="Y52" s="65" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="AB52" s="191"/>
       <c r="AC52" s="191"/>
       <c r="AD52" s="191"/>
       <c r="AE52" s="191"/>
       <c r="AG52" s="14" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="AH52" s="14"/>
     </row>
     <row r="53" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="66" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="E53" s="67"/>
       <c r="F53" s="68"/>
@@ -27930,7 +28173,7 @@
       <c r="W53" s="68"/>
       <c r="X53" s="68"/>
       <c r="Y53" s="69" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="AG53" s="192"/>
       <c r="AH53" s="192"/>
@@ -27939,7 +28182,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="43"/>
       <c r="D54" s="52" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="E54" s="53"/>
       <c r="F54" s="54"/>
@@ -27962,14 +28205,14 @@
       <c r="W54" s="54"/>
       <c r="X54" s="54"/>
       <c r="Y54" s="55" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="AB54" s="193"/>
       <c r="AC54" s="193"/>
       <c r="AD54" s="193"/>
       <c r="AE54" s="193"/>
       <c r="AG54" s="14" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="AH54" s="14"/>
     </row>
@@ -27977,7 +28220,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="43"/>
       <c r="D55" s="56" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="58"/>
@@ -28000,7 +28243,7 @@
       <c r="W55" s="58"/>
       <c r="X55" s="58"/>
       <c r="Y55" s="59" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="AG55" s="192"/>
       <c r="AH55" s="192"/>
@@ -28009,7 +28252,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="43"/>
       <c r="D56" s="52" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="E56" s="53"/>
       <c r="F56" s="54"/>
@@ -28032,14 +28275,14 @@
       <c r="W56" s="54"/>
       <c r="X56" s="54"/>
       <c r="Y56" s="55" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="AB56" s="194"/>
       <c r="AC56" s="194"/>
       <c r="AD56" s="194"/>
       <c r="AE56" s="194"/>
       <c r="AG56" s="14" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="AH56" s="14"/>
     </row>
@@ -28047,7 +28290,7 @@
       <c r="B57" s="42"/>
       <c r="C57" s="43"/>
       <c r="D57" s="48" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
@@ -28070,7 +28313,7 @@
       <c r="W57" s="50"/>
       <c r="X57" s="50"/>
       <c r="Y57" s="51" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="AG57" s="192"/>
       <c r="AH57" s="192"/>
@@ -28079,7 +28322,7 @@
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="109" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="E58" s="110"/>
       <c r="F58" s="111"/>
@@ -28102,24 +28345,24 @@
       <c r="W58" s="111"/>
       <c r="X58" s="111"/>
       <c r="Y58" s="112" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="AB58" s="195"/>
       <c r="AC58" s="195"/>
       <c r="AD58" s="195"/>
       <c r="AE58" s="195"/>
       <c r="AG58" s="14" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="AH58" s="14"/>
     </row>
     <row r="59" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="36" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="196" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="E59" s="197"/>
       <c r="F59" s="198"/>
@@ -28142,7 +28385,7 @@
       <c r="W59" s="198"/>
       <c r="X59" s="198"/>
       <c r="Y59" s="199" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="AG59" s="192"/>
       <c r="AH59" s="192"/>
@@ -28151,7 +28394,7 @@
       <c r="B60" s="42"/>
       <c r="C60" s="43"/>
       <c r="D60" s="56" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="58"/>
@@ -28174,22 +28417,22 @@
       <c r="W60" s="58"/>
       <c r="X60" s="58"/>
       <c r="Y60" s="59" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="AB60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AC60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AD60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AE60" s="135" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="AG60" s="14" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="AH60" s="14"/>
     </row>
@@ -28197,7 +28440,7 @@
       <c r="B61" s="42"/>
       <c r="C61" s="43"/>
       <c r="D61" s="48" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="50"/>
@@ -28220,7 +28463,7 @@
       <c r="W61" s="50"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="51" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
       <c r="AB61" s="200"/>
       <c r="AC61" s="200"/>
@@ -28233,7 +28476,7 @@
       <c r="B62" s="60"/>
       <c r="C62" s="61"/>
       <c r="D62" s="109" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="E62" s="110"/>
       <c r="F62" s="111"/>
@@ -28256,32 +28499,32 @@
       <c r="W62" s="111"/>
       <c r="X62" s="111"/>
       <c r="Y62" s="112" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
       <c r="AB62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AC62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AD62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AE62" s="135" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="AG62" s="14" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="AH62" s="14"/>
     </row>
     <row r="63" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="36" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="89" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="E63" s="90"/>
       <c r="F63" s="91"/>
@@ -28304,7 +28547,7 @@
       <c r="W63" s="91"/>
       <c r="X63" s="91"/>
       <c r="Y63" s="92" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="AG63" s="192"/>
       <c r="AH63" s="192"/>
@@ -28313,7 +28556,7 @@
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
       <c r="D64" s="52" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="E64" s="53"/>
       <c r="F64" s="54"/>
@@ -28336,14 +28579,14 @@
       <c r="W64" s="54"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="55" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="AB64" s="201"/>
       <c r="AC64" s="201"/>
       <c r="AD64" s="201"/>
       <c r="AE64" s="201"/>
       <c r="AG64" s="14" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="AH64" s="14"/>
     </row>
@@ -28351,7 +28594,7 @@
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
       <c r="D65" s="44" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46"/>
@@ -28374,14 +28617,14 @@
       <c r="W65" s="46"/>
       <c r="X65" s="46"/>
       <c r="Y65" s="47" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
     </row>
     <row r="66" spans="2:25" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="60"/>
       <c r="C66" s="61"/>
       <c r="D66" s="62" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="E66" s="63"/>
       <c r="F66" s="64"/>
@@ -28404,12 +28647,12 @@
       <c r="W66" s="64"/>
       <c r="X66" s="64"/>
       <c r="Y66" s="65" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
     </row>
     <row r="67" spans="2:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="202" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="C67" s="203"/>
       <c r="D67" s="204"/>
@@ -28437,7 +28680,7 @@
     </row>
     <row r="68" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="208" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
       <c r="C68" s="209" t="s">
         <v>4</v>
@@ -28464,13 +28707,13 @@
       <c r="W68" s="91"/>
       <c r="X68" s="91"/>
       <c r="Y68" s="211" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
     </row>
     <row r="69" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="212"/>
       <c r="C69" s="213" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="57"/>
@@ -28498,7 +28741,7 @@
     <row r="70" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="212"/>
       <c r="C70" s="213" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
       <c r="D70" s="214"/>
       <c r="E70" s="57"/>
@@ -28610,7 +28853,7 @@
     <row r="74" spans="2:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="212"/>
       <c r="C74" s="213" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
       <c r="D74" s="214"/>
       <c r="E74" s="57"/>
@@ -28638,7 +28881,7 @@
     <row r="75" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="212"/>
       <c r="C75" s="213" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="D75" s="214"/>
       <c r="E75" s="216"/>
@@ -28666,7 +28909,7 @@
     <row r="76" spans="2:25" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="218"/>
       <c r="C76" s="219" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="D76" s="220"/>
       <c r="E76" s="221"/>
@@ -28992,7 +29235,7 @@
         <v>98</v>
       </c>
       <c r="H10">
-        <v>99.199996948242202</v>
+        <v>99.199996948242188</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -29342,7 +29585,7 @@
         <v>95</v>
       </c>
       <c r="H26">
-        <v>97.699996948242202</v>
+        <v>97.699996948242188</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -29998,7 +30241,7 @@
         <v>100</v>
       </c>
       <c r="H54">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -30467,7 +30710,7 @@
         <v>97</v>
       </c>
       <c r="H74">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -30942,7 +31185,7 @@
         <v>97</v>
       </c>
       <c r="H94">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -31114,7 +31357,7 @@
         <v>100</v>
       </c>
       <c r="H102">
-        <v>97.199996948242202</v>
+        <v>97.199996948242188</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -31684,7 +31927,7 @@
         <v>98</v>
       </c>
       <c r="H126">
-        <v>97.199996948242202</v>
+        <v>97.199996948242188</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -31779,7 +32022,7 @@
         <v>95</v>
       </c>
       <c r="H130">
-        <v>96.699996948242202</v>
+        <v>96.699996948242188</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -32640,7 +32883,7 @@
         <v>100</v>
       </c>
       <c r="H166">
-        <v>98.699996948242202</v>
+        <v>98.699996948242188</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -33132,7 +33375,7 @@
         <v>100</v>
       </c>
       <c r="H187">
-        <v>99.699996948242202</v>
+        <v>99.699996948242188</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -33417,7 +33660,7 @@
         <v>100</v>
       </c>
       <c r="H199">
-        <v>98.699996948242202</v>
+        <v>98.699996948242188</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -34295,7 +34538,7 @@
         <v>100</v>
       </c>
       <c r="H236">
-        <v>99.699996948242202</v>
+        <v>99.699996948242188</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -34649,7 +34892,7 @@
         <v>16</v>
       </c>
       <c r="H251">
-        <v>98.699996948242202</v>
+        <v>98.699996948242188</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -34752,7 +34995,7 @@
         <v>13</v>
       </c>
       <c r="H256">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -34918,7 +35161,7 @@
         <v>22</v>
       </c>
       <c r="H264">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -35024,7 +35267,7 @@
         <v>100</v>
       </c>
       <c r="H269">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
       <c r="K269">
         <v>0</v>
@@ -35670,7 +35913,7 @@
         <v>99</v>
       </c>
       <c r="H298">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
       <c r="K298">
         <v>0</v>
@@ -36494,7 +36737,7 @@
         <v>99</v>
       </c>
       <c r="H335">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
@@ -36658,7 +36901,7 @@
         <v>99</v>
       </c>
       <c r="H342">
-        <v>98.699996948242202</v>
+        <v>98.699996948242188</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -36753,7 +36996,7 @@
         <v>98</v>
       </c>
       <c r="H346">
-        <v>99.199996948242202</v>
+        <v>99.199996948242188</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -37098,7 +37341,7 @@
         <v>100</v>
       </c>
       <c r="H361">
-        <v>98.199996948242202</v>
+        <v>98.199996948242188</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -40059,13 +40302,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A30:EB38"/>
+  <dimension ref="A30:EH79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="30" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:138" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>508</v>
       </c>
@@ -40073,7 +40316,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:138" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>510</v>
       </c>
@@ -40096,7 +40339,7 @@
         <v>510</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>511</v>
@@ -40114,10 +40357,10 @@
         <v>511</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>512</v>
@@ -40132,10 +40375,10 @@
         <v>512</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W31" s="1" t="s">
         <v>513</v>
@@ -40150,10 +40393,10 @@
         <v>513</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>514</v>
@@ -40168,10 +40411,10 @@
         <v>514</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>515</v>
@@ -40186,10 +40429,10 @@
         <v>515</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO31" s="1" t="s">
         <v>516</v>
@@ -40204,10 +40447,10 @@
         <v>516</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AU31" s="1" t="s">
         <v>517</v>
@@ -40222,10 +40465,10 @@
         <v>517</v>
       </c>
       <c r="AY31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AZ31" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BA31" s="1" t="s">
         <v>518</v>
@@ -40240,10 +40483,10 @@
         <v>518</v>
       </c>
       <c r="BE31" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BF31" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BG31" s="1" t="s">
         <v>519</v>
@@ -40258,10 +40501,10 @@
         <v>519</v>
       </c>
       <c r="BK31" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BM31" s="1" t="s">
         <v>520</v>
@@ -40276,10 +40519,10 @@
         <v>520</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BS31" s="1" t="s">
         <v>521</v>
@@ -40294,10 +40537,10 @@
         <v>521</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BY31" s="1" t="s">
         <v>522</v>
@@ -40312,10 +40555,10 @@
         <v>522</v>
       </c>
       <c r="CC31" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="CE31" s="1" t="s">
         <v>523</v>
@@ -40330,10 +40573,10 @@
         <v>523</v>
       </c>
       <c r="CI31" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="CJ31" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="CK31" s="1" t="s">
         <v>524</v>
@@ -40345,10 +40588,10 @@
         <v>524</v>
       </c>
       <c r="CN31" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="CO31" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="CP31" s="1" t="s">
         <v>525</v>
@@ -40369,16 +40612,16 @@
         <v>525</v>
       </c>
       <c r="CV31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CW31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CX31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CY31" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="CZ31" s="1" t="s">
         <v>526</v>
@@ -40393,16 +40636,16 @@
         <v>526</v>
       </c>
       <c r="DD31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DE31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DF31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DG31" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="DH31" s="1" t="s">
         <v>527</v>
@@ -40414,19 +40657,19 @@
         <v>527</v>
       </c>
       <c r="DK31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DL31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DM31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DN31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DO31" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="DP31" s="1" t="s">
         <v>528</v>
@@ -40435,19 +40678,19 @@
         <v>528</v>
       </c>
       <c r="DR31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DS31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DT31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DU31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DV31" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="DW31" s="1" t="s">
         <v>529</v>
@@ -40456,915 +40699,1510 @@
         <v>529</v>
       </c>
       <c r="DY31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="DZ31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="EA31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="EB31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="EC31" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="ED31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="DZ31" s="1" t="s">
+      <c r="EE31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="EA31" s="1" t="s">
+      <c r="EF31" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="EB31" s="1" t="s">
+      <c r="EG31" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="32" spans="1:132" x14ac:dyDescent="0.3">
+      <c r="EH31" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:138" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D32" t="s">
+        <v>591</v>
+      </c>
+      <c r="E32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F32" t="s">
+        <v>594</v>
+      </c>
+      <c r="G32" t="s">
+        <v>596</v>
+      </c>
+      <c r="H32" t="s">
+        <v>597</v>
+      </c>
+      <c r="I32" t="s">
+        <v>598</v>
+      </c>
+      <c r="J32" t="s">
+        <v>579</v>
+      </c>
+      <c r="K32" t="s">
+        <v>579</v>
+      </c>
+      <c r="L32" t="s">
+        <v>593</v>
+      </c>
+      <c r="M32" t="s">
+        <v>604</v>
+      </c>
+      <c r="N32" t="s">
+        <v>596</v>
+      </c>
+      <c r="O32" t="s">
+        <v>597</v>
+      </c>
+      <c r="P32" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>579</v>
+      </c>
+      <c r="R32" t="s">
+        <v>593</v>
+      </c>
+      <c r="S32" t="s">
+        <v>594</v>
+      </c>
+      <c r="T32" t="s">
+        <v>596</v>
+      </c>
+      <c r="U32" t="s">
+        <v>597</v>
+      </c>
+      <c r="V32" t="s">
+        <v>598</v>
+      </c>
+      <c r="W32" t="s">
+        <v>579</v>
+      </c>
+      <c r="X32" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>611</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>593</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>594</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>597</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>598</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>598</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>620</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>622</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>596</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>597</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>598</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>579</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>593</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>594</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>596</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>597</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>598</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>593</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>594</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>596</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>597</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>598</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>593</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>594</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>596</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>597</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CQ32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CR32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CS32" t="s">
+        <v>579</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>645</v>
+      </c>
+      <c r="CU32" t="s">
+        <v>604</v>
+      </c>
+      <c r="CV32" t="s">
+        <v>646</v>
+      </c>
+      <c r="CW32" t="s">
+        <v>647</v>
+      </c>
+      <c r="CX32" t="s">
+        <v>620</v>
+      </c>
+      <c r="CY32" t="s">
+        <v>648</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>646</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>650</v>
+      </c>
+      <c r="DF32" t="s">
+        <v>620</v>
+      </c>
+      <c r="DG32" t="s">
+        <v>648</v>
+      </c>
+      <c r="DH32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DI32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DJ32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>646</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>647</v>
+      </c>
+      <c r="DN32" t="s">
+        <v>620</v>
+      </c>
+      <c r="DO32" t="s">
+        <v>648</v>
+      </c>
+      <c r="DP32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DQ32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DR32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DS32" t="s">
+        <v>646</v>
+      </c>
+      <c r="DT32" t="s">
+        <v>647</v>
+      </c>
+      <c r="DU32" t="s">
+        <v>620</v>
+      </c>
+      <c r="DV32" t="s">
+        <v>648</v>
+      </c>
+      <c r="DW32" t="s">
+        <v>579</v>
+      </c>
+      <c r="DX32" t="s">
+        <v>645</v>
+      </c>
+      <c r="DY32" t="s">
+        <v>604</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>646</v>
+      </c>
+      <c r="EA32" t="s">
+        <v>647</v>
+      </c>
+      <c r="EB32" t="s">
+        <v>620</v>
+      </c>
+      <c r="EC32" t="s">
+        <v>648</v>
+      </c>
+      <c r="ED32" t="s">
+        <v>645</v>
+      </c>
+      <c r="EE32" t="s">
+        <v>594</v>
+      </c>
+      <c r="EF32" t="s">
+        <v>596</v>
+      </c>
+      <c r="EG32" t="s">
+        <v>647</v>
+      </c>
+      <c r="EH32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>625</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>627</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>628</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>628</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>628</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>631</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>626</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D35" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" t="s">
+        <v>592</v>
+      </c>
+      <c r="F35" t="s">
+        <v>595</v>
+      </c>
+      <c r="G35" t="s">
+        <v>592</v>
+      </c>
+      <c r="H35" t="s">
+        <v>592</v>
+      </c>
+      <c r="I35" t="s">
+        <v>592</v>
+      </c>
+      <c r="J35" t="s">
+        <v>599</v>
+      </c>
+      <c r="K35" t="s">
+        <v>599</v>
+      </c>
+      <c r="L35" t="s">
+        <v>603</v>
+      </c>
+      <c r="M35" t="s">
+        <v>599</v>
+      </c>
+      <c r="N35" t="s">
+        <v>592</v>
+      </c>
+      <c r="O35" t="s">
+        <v>599</v>
+      </c>
+      <c r="P35" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>592</v>
+      </c>
+      <c r="R35" t="s">
+        <v>603</v>
+      </c>
+      <c r="S35" t="s">
+        <v>592</v>
+      </c>
+      <c r="T35" t="s">
+        <v>603</v>
+      </c>
+      <c r="U35" t="s">
+        <v>599</v>
+      </c>
+      <c r="V35" t="s">
+        <v>599</v>
+      </c>
+      <c r="W35" t="s">
+        <v>599</v>
+      </c>
+      <c r="X35" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>610</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>603</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>599</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>595</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>603</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>599</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>599</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>592</v>
+      </c>
+      <c r="CT35" t="s">
+        <v>603</v>
+      </c>
+      <c r="CU35" t="s">
+        <v>603</v>
+      </c>
+      <c r="CV35" t="s">
+        <v>603</v>
+      </c>
+      <c r="CW35" t="s">
+        <v>607</v>
+      </c>
+      <c r="CX35" t="s">
+        <v>607</v>
+      </c>
+      <c r="CY35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DB35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DD35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DF35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DG35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DJ35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DK35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DL35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DM35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DN35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DO35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DQ35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DR35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DS35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DT35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DU35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DV35" t="s">
+        <v>607</v>
+      </c>
+      <c r="DX35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DY35" t="s">
+        <v>603</v>
+      </c>
+      <c r="DZ35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EA35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EB35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EC35" t="s">
+        <v>603</v>
+      </c>
+      <c r="ED35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EE35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EF35" t="s">
+        <v>607</v>
+      </c>
+      <c r="EG35" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>615</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>635</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>635</v>
+      </c>
+      <c r="CR37" t="s">
+        <v>635</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C32" t="s">
+      <c r="CP38" t="s">
+        <v>636</v>
+      </c>
+      <c r="CQ38" t="s">
+        <v>636</v>
+      </c>
+      <c r="CR38" t="s">
+        <v>636</v>
+      </c>
+      <c r="CS38" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J39" t="s">
+        <v>600</v>
+      </c>
+      <c r="K39" t="s">
+        <v>600</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>600</v>
+      </c>
+      <c r="CE39" t="s">
+        <v>624</v>
+      </c>
+      <c r="CP39" t="s">
+        <v>600</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>644</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>644</v>
+      </c>
+      <c r="CS39" t="s">
+        <v>600</v>
+      </c>
+      <c r="CZ39" t="s">
+        <v>649</v>
+      </c>
+      <c r="DA39" t="s">
+        <v>649</v>
+      </c>
+      <c r="DH39" t="s">
+        <v>600</v>
+      </c>
+      <c r="DI39" t="s">
+        <v>649</v>
+      </c>
+      <c r="DP39" t="s">
+        <v>652</v>
+      </c>
+      <c r="DW39" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B40" t="s">
+        <v>580</v>
+      </c>
+      <c r="C40" t="s">
+        <v>580</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CP40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CQ40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CR40" t="s">
+        <v>619</v>
+      </c>
+      <c r="CS40" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>637</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>637</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>637</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="42" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E32" t="s">
+      <c r="CP42" t="s">
+        <v>638</v>
+      </c>
+      <c r="CQ42" t="s">
+        <v>638</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>638</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>638</v>
+      </c>
+      <c r="DW42" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F32" t="s">
+      <c r="CP43" t="s">
+        <v>639</v>
+      </c>
+      <c r="CQ43" t="s">
+        <v>639</v>
+      </c>
+      <c r="CR43" t="s">
+        <v>639</v>
+      </c>
+      <c r="CS43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="CP44" t="s">
+        <v>640</v>
+      </c>
+      <c r="CQ44" t="s">
+        <v>640</v>
+      </c>
+      <c r="CR44" t="s">
+        <v>640</v>
+      </c>
+      <c r="CS44" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G32" t="s">
+      <c r="CP45" t="s">
+        <v>641</v>
+      </c>
+      <c r="CQ45" t="s">
+        <v>641</v>
+      </c>
+      <c r="CR45" t="s">
+        <v>641</v>
+      </c>
+      <c r="CS45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="H32" t="s">
+      <c r="CP46" t="s">
+        <v>642</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>642</v>
+      </c>
+      <c r="CR46" t="s">
+        <v>642</v>
+      </c>
+      <c r="CS46" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I32" t="s">
-        <v>537</v>
-      </c>
-      <c r="J32" t="s">
-        <v>541</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="CP47" t="s">
+        <v>618</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>618</v>
+      </c>
+      <c r="CR47" t="s">
+        <v>618</v>
+      </c>
+      <c r="CS47" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:137" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="CK48" t="s">
+        <v>633</v>
+      </c>
+      <c r="CP48" t="s">
+        <v>643</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>643</v>
+      </c>
+      <c r="CR48" t="s">
+        <v>643</v>
+      </c>
+      <c r="CS48" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="CP49" t="s">
+        <v>582</v>
+      </c>
+      <c r="CQ49" t="s">
+        <v>582</v>
+      </c>
+      <c r="CR49" t="s">
+        <v>582</v>
+      </c>
+      <c r="CS49" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="L32" t="s">
-        <v>544</v>
-      </c>
-      <c r="M32" t="s">
-        <v>545</v>
-      </c>
-      <c r="N32" t="s">
-        <v>546</v>
-      </c>
-      <c r="O32" t="s">
-        <v>537</v>
-      </c>
-      <c r="P32" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>542</v>
-      </c>
-      <c r="R32" t="s">
-        <v>544</v>
-      </c>
-      <c r="S32" t="s">
-        <v>545</v>
-      </c>
-      <c r="T32" t="s">
-        <v>546</v>
-      </c>
-      <c r="U32" t="s">
-        <v>537</v>
-      </c>
-      <c r="V32" t="s">
-        <v>541</v>
-      </c>
-      <c r="W32" t="s">
-        <v>542</v>
-      </c>
-      <c r="X32" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>545</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AD32" t="s">
+      <c r="B50" t="s">
+        <v>581</v>
+      </c>
+      <c r="C50" t="s">
+        <v>581</v>
+      </c>
+      <c r="W50" t="s">
+        <v>581</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>609</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>581</v>
+      </c>
+      <c r="CZ50" t="s">
+        <v>581</v>
+      </c>
+      <c r="DA50" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BM51" t="s">
+        <v>621</v>
+      </c>
+      <c r="BS51" t="s">
+        <v>621</v>
+      </c>
+      <c r="CE51" t="s">
+        <v>629</v>
+      </c>
+      <c r="CK51" t="s">
+        <v>629</v>
+      </c>
+      <c r="CZ51" t="s">
+        <v>629</v>
+      </c>
+      <c r="DA51" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>612</v>
+      </c>
+      <c r="CZ52" t="s">
+        <v>612</v>
+      </c>
+      <c r="DA52" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="AE32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>544</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>544</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>542</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>544</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>545</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>546</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>537</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BB32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BD32" t="s">
-        <v>546</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BF32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ32" t="s">
+      <c r="AU54" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="BA55" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="BK32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BP32" t="s">
+      <c r="Q56" t="s">
+        <v>605</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="BQ32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BR32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>544</v>
-      </c>
-      <c r="BU32" t="s">
-        <v>545</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>546</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>537</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>541</v>
-      </c>
-      <c r="BY32" t="s">
-        <v>542</v>
-      </c>
-      <c r="BZ32" t="s">
-        <v>544</v>
-      </c>
-      <c r="CA32" t="s">
-        <v>545</v>
-      </c>
-      <c r="CB32" t="s">
-        <v>546</v>
-      </c>
-      <c r="CC32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CD32" t="s">
-        <v>541</v>
-      </c>
-      <c r="CE32" t="s">
-        <v>542</v>
-      </c>
-      <c r="CF32" t="s">
-        <v>544</v>
-      </c>
-      <c r="CG32" t="s">
-        <v>545</v>
-      </c>
-      <c r="CH32" t="s">
-        <v>546</v>
-      </c>
-      <c r="CI32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CJ32" t="s">
-        <v>541</v>
-      </c>
-      <c r="CK32" t="s">
-        <v>542</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>544</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>545</v>
-      </c>
-      <c r="CN32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CO32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CP32" t="s">
+      <c r="BA58" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="BS59" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="BY60" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BY61" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CE62" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B64" t="s">
+        <v>581</v>
+      </c>
+      <c r="C64" t="s">
+        <v>581</v>
+      </c>
+      <c r="J64" t="s">
+        <v>581</v>
+      </c>
+      <c r="K64" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B65" t="s">
+        <v>582</v>
+      </c>
+      <c r="C65" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B66" t="s">
+        <v>583</v>
+      </c>
+      <c r="C66" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="67" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B67" t="s">
+        <v>584</v>
+      </c>
+      <c r="C67" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="CQ32" t="s">
-        <v>549</v>
-      </c>
-      <c r="CR32" t="s">
+      <c r="B68" t="s">
+        <v>585</v>
+      </c>
+      <c r="C68" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="CS32" t="s">
+      <c r="B69" t="s">
+        <v>586</v>
+      </c>
+      <c r="C69" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="CT32" t="s">
-        <v>555</v>
-      </c>
-      <c r="CU32" t="s">
+      <c r="B70" t="s">
+        <v>587</v>
+      </c>
+      <c r="C70" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="71" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="CV32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CW32" t="s">
-        <v>537</v>
-      </c>
-      <c r="CX32" t="s">
-        <v>567</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>549</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DA32" t="s">
+      <c r="B71" t="s">
+        <v>588</v>
+      </c>
+      <c r="C71" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B72" t="s">
+        <v>589</v>
+      </c>
+      <c r="C72" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="DB32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DC32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DD32" t="s">
-        <v>537</v>
-      </c>
-      <c r="DE32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DF32" t="s">
-        <v>549</v>
-      </c>
-      <c r="DG32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DH32" t="s">
-        <v>569</v>
-      </c>
-      <c r="DI32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DJ32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DK32" t="s">
-        <v>537</v>
-      </c>
-      <c r="DL32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DM32" t="s">
-        <v>549</v>
-      </c>
-      <c r="DN32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DO32" t="s">
-        <v>569</v>
-      </c>
-      <c r="DP32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DQ32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DR32" t="s">
-        <v>537</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>549</v>
-      </c>
-      <c r="DU32" t="s">
-        <v>568</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>569</v>
-      </c>
-      <c r="DW32" t="s">
-        <v>555</v>
-      </c>
-      <c r="DX32" t="s">
-        <v>570</v>
-      </c>
-      <c r="DY32" t="s">
-        <v>567</v>
-      </c>
-      <c r="DZ32" t="s">
-        <v>542</v>
-      </c>
-      <c r="EA32" t="s">
-        <v>544</v>
-      </c>
-      <c r="EB32" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CA33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CB33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CD33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CE33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CF33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CG33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CH33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CI33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CJ33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CK33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CL33" t="s">
-        <v>558</v>
-      </c>
-      <c r="CM33" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="34" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>560</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>561</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>561</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>561</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CH34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>564</v>
-      </c>
-      <c r="CJ34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CK34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CL34" t="s">
-        <v>559</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="35" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C35" t="s">
-        <v>540</v>
-      </c>
-      <c r="D35" t="s">
-        <v>540</v>
-      </c>
-      <c r="E35" t="s">
-        <v>543</v>
-      </c>
-      <c r="F35" t="s">
-        <v>540</v>
-      </c>
-      <c r="G35" t="s">
-        <v>540</v>
-      </c>
-      <c r="H35" t="s">
-        <v>540</v>
-      </c>
-      <c r="I35" t="s">
-        <v>547</v>
-      </c>
-      <c r="J35" t="s">
-        <v>548</v>
-      </c>
-      <c r="K35" t="s">
-        <v>547</v>
-      </c>
-      <c r="L35" t="s">
-        <v>540</v>
-      </c>
-      <c r="M35" t="s">
-        <v>547</v>
-      </c>
-      <c r="N35" t="s">
-        <v>548</v>
-      </c>
-      <c r="O35" t="s">
-        <v>540</v>
-      </c>
-      <c r="P35" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>540</v>
-      </c>
-      <c r="R35" t="s">
-        <v>548</v>
-      </c>
-      <c r="S35" t="s">
-        <v>547</v>
-      </c>
-      <c r="T35" t="s">
-        <v>547</v>
-      </c>
-      <c r="U35" t="s">
-        <v>547</v>
-      </c>
-      <c r="V35" t="s">
-        <v>547</v>
-      </c>
-      <c r="W35" t="s">
-        <v>547</v>
-      </c>
-      <c r="X35" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>548</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>552</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>552</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>548</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>547</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BN35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BO35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BP35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BQ35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BS35" t="s">
-        <v>543</v>
-      </c>
-      <c r="BT35" t="s">
-        <v>548</v>
-      </c>
-      <c r="BU35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BW35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BX35" t="s">
-        <v>547</v>
-      </c>
-      <c r="BY35" t="s">
-        <v>540</v>
-      </c>
-      <c r="CP35" t="s">
-        <v>548</v>
-      </c>
-      <c r="CQ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="CR35" t="s">
-        <v>548</v>
-      </c>
-      <c r="CS35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CT35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CU35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CX35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CY35" t="s">
-        <v>550</v>
-      </c>
-      <c r="CZ35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DA35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DB35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DC35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DE35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DF35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DG35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DH35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DI35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DJ35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DL35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DM35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DN35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DO35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DP35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DQ35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DS35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DT35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DU35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DV35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DW35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DX35" t="s">
-        <v>548</v>
-      </c>
-      <c r="DY35" t="s">
-        <v>550</v>
-      </c>
-      <c r="DZ35" t="s">
-        <v>550</v>
-      </c>
-      <c r="EA35" t="s">
-        <v>550</v>
-      </c>
-      <c r="EB35" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="36" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>551</v>
-      </c>
-      <c r="CC36" t="s">
-        <v>562</v>
-      </c>
-      <c r="CN36" t="s">
-        <v>565</v>
-      </c>
-      <c r="CO36" t="s">
-        <v>565</v>
-      </c>
-      <c r="CV36" t="s">
-        <v>571</v>
-      </c>
-      <c r="CW36" t="s">
-        <v>571</v>
-      </c>
-      <c r="DD36" t="s">
-        <v>571</v>
-      </c>
-      <c r="DK36" t="s">
+      <c r="J73" t="s">
+        <v>601</v>
+      </c>
+      <c r="K73" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>580</v>
+      </c>
+      <c r="DH73" t="s">
+        <v>651</v>
+      </c>
+      <c r="DI73" t="s">
+        <v>651</v>
+      </c>
+      <c r="DP73" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="DR36" t="s">
+      <c r="B74" t="s">
+        <v>585</v>
+      </c>
+      <c r="C74" t="s">
+        <v>590</v>
+      </c>
+      <c r="J74" t="s">
+        <v>590</v>
+      </c>
+      <c r="K74" t="s">
+        <v>590</v>
+      </c>
+      <c r="W74" t="s">
+        <v>590</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="37" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>556</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>556</v>
-      </c>
-      <c r="CC37" t="s">
-        <v>563</v>
-      </c>
-      <c r="CI37" t="s">
-        <v>563</v>
-      </c>
-      <c r="CV37" t="s">
-        <v>563</v>
-      </c>
-      <c r="CW37" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B38" t="s">
-        <v>538</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>554</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>566</v>
-      </c>
-      <c r="CO38" t="s">
-        <v>554</v>
-      </c>
-      <c r="DR38" t="s">
-        <v>566</v>
+      <c r="J75" t="s">
+        <v>602</v>
+      </c>
+      <c r="K75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="W77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="DP78" t="s">
+        <v>653</v>
+      </c>
+      <c r="DW78" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="79" spans="1:138" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="EH79" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
